--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,119 +537,119 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.2315720045612</v>
+        <v>42.795813</v>
       </c>
       <c r="H2">
-        <v>25.2315720045612</v>
+        <v>128.387439</v>
       </c>
       <c r="I2">
-        <v>0.478001522198589</v>
+        <v>0.5625751540183725</v>
       </c>
       <c r="J2">
-        <v>0.478001522198589</v>
+        <v>0.5625751540183725</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.679811484507606</v>
+        <v>1.784387333333334</v>
       </c>
       <c r="N2">
-        <v>0.679811484507606</v>
+        <v>5.353162000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8497495275167334</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.8497495275167334</v>
       </c>
       <c r="Q2">
-        <v>17.1527124208813</v>
+        <v>76.36430663690203</v>
       </c>
       <c r="R2">
-        <v>17.1527124208813</v>
+        <v>687.2787597321181</v>
       </c>
       <c r="S2">
-        <v>0.478001522198589</v>
+        <v>0.4780479713197656</v>
       </c>
       <c r="T2">
-        <v>0.478001522198589</v>
+        <v>0.4780479713197656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.2775962911768</v>
+        <v>42.795813</v>
       </c>
       <c r="H3">
-        <v>18.2775962911768</v>
+        <v>128.387439</v>
       </c>
       <c r="I3">
-        <v>0.346261376331781</v>
+        <v>0.5625751540183725</v>
       </c>
       <c r="J3">
-        <v>0.346261376331781</v>
+        <v>0.5625751540183725</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.679811484507606</v>
+        <v>0.282763</v>
       </c>
       <c r="N3">
-        <v>0.679811484507606</v>
+        <v>0.8482890000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1346555880333235</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1346555880333235</v>
       </c>
       <c r="Q3">
-        <v>12.42531986793561</v>
+        <v>12.101072471319</v>
       </c>
       <c r="R3">
-        <v>12.42531986793561</v>
+        <v>108.909652241871</v>
       </c>
       <c r="S3">
-        <v>0.346261376331781</v>
+        <v>0.07575388817728149</v>
       </c>
       <c r="T3">
-        <v>0.346261376331781</v>
+        <v>0.07575388817728149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.50226931249431</v>
+        <v>42.795813</v>
       </c>
       <c r="H4">
-        <v>3.50226931249431</v>
+        <v>128.387439</v>
       </c>
       <c r="I4">
-        <v>0.06634901948317191</v>
+        <v>0.5625751540183725</v>
       </c>
       <c r="J4">
-        <v>0.06634901948317191</v>
+        <v>0.5625751540183725</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.679811484507606</v>
+        <v>0.03274766666666667</v>
       </c>
       <c r="N4">
-        <v>0.679811484507606</v>
+        <v>0.098243</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.01559488444994312</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.01559488444994312</v>
       </c>
       <c r="Q4">
-        <v>2.380882900472189</v>
+        <v>1.401463018853</v>
       </c>
       <c r="R4">
-        <v>2.380882900472189</v>
+        <v>12.613167169677</v>
       </c>
       <c r="S4">
-        <v>0.06634901948317191</v>
+        <v>0.008773294521325475</v>
       </c>
       <c r="T4">
-        <v>0.06634901948317191</v>
+        <v>0.008773294521325475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.76958253049277</v>
+        <v>18.46163566666667</v>
       </c>
       <c r="H5">
-        <v>3.76958253049277</v>
+        <v>55.384907</v>
       </c>
       <c r="I5">
-        <v>0.07141315599769303</v>
+        <v>0.2426886370544259</v>
       </c>
       <c r="J5">
-        <v>0.07141315599769303</v>
+        <v>0.2426886370544258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.679811484507606</v>
+        <v>1.784387333333334</v>
       </c>
       <c r="N5">
-        <v>0.679811484507606</v>
+        <v>5.353162000000001</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8497495275167334</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8497495275167334</v>
       </c>
       <c r="Q5">
-        <v>2.562605496028228</v>
+        <v>32.9427088362149</v>
       </c>
       <c r="R5">
-        <v>2.562605496028228</v>
+        <v>296.4843795259341</v>
       </c>
       <c r="S5">
-        <v>0.07141315599769303</v>
+        <v>0.2062245546706784</v>
       </c>
       <c r="T5">
-        <v>0.07141315599769303</v>
+        <v>0.2062245546706784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,117 +782,861 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6564799179615169</v>
+        <v>18.46163566666667</v>
       </c>
       <c r="H6">
-        <v>0.6564799179615169</v>
+        <v>55.384907</v>
       </c>
       <c r="I6">
-        <v>0.01243673600763692</v>
+        <v>0.2426886370544259</v>
       </c>
       <c r="J6">
-        <v>0.01243673600763692</v>
+        <v>0.2426886370544258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.679811484507606</v>
+        <v>0.282763</v>
       </c>
       <c r="N6">
-        <v>0.679811484507606</v>
+        <v>0.8482890000000001</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.1346555880333235</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.1346555880333235</v>
       </c>
       <c r="Q6">
-        <v>0.4462825875788502</v>
+        <v>5.220267486013667</v>
       </c>
       <c r="R6">
-        <v>0.4462825875788502</v>
+        <v>46.982407374123</v>
       </c>
       <c r="S6">
-        <v>0.01243673600763692</v>
+        <v>0.03267938113156954</v>
       </c>
       <c r="T6">
-        <v>0.01243673600763692</v>
+        <v>0.03267938113156953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>18.46163566666667</v>
+      </c>
+      <c r="H7">
+        <v>55.384907</v>
+      </c>
+      <c r="I7">
+        <v>0.2426886370544259</v>
+      </c>
+      <c r="J7">
+        <v>0.2426886370544258</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.03274766666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.098243</v>
+      </c>
+      <c r="O7">
+        <v>0.01559488444994312</v>
+      </c>
+      <c r="P7">
+        <v>0.01559488444994312</v>
+      </c>
+      <c r="Q7">
+        <v>0.6045754909334444</v>
+      </c>
+      <c r="R7">
+        <v>5.441179418401</v>
+      </c>
+      <c r="S7">
+        <v>0.003784701252177956</v>
+      </c>
+      <c r="T7">
+        <v>0.003784701252177955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.580059666666667</v>
+      </c>
+      <c r="H8">
+        <v>22.740179</v>
+      </c>
+      <c r="I8">
+        <v>0.09964416926589183</v>
+      </c>
+      <c r="J8">
+        <v>0.09964416926589181</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.784387333333334</v>
+      </c>
+      <c r="N8">
+        <v>5.353162000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.8497495275167334</v>
+      </c>
+      <c r="P8">
+        <v>0.8497495275167334</v>
+      </c>
+      <c r="Q8">
+        <v>13.52576245511089</v>
+      </c>
+      <c r="R8">
+        <v>121.731862095998</v>
+      </c>
+      <c r="S8">
+        <v>0.08467258575348899</v>
+      </c>
+      <c r="T8">
+        <v>0.08467258575348897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.580059666666667</v>
+      </c>
+      <c r="H9">
+        <v>22.740179</v>
+      </c>
+      <c r="I9">
+        <v>0.09964416926589183</v>
+      </c>
+      <c r="J9">
+        <v>0.09964416926589181</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.282763</v>
+      </c>
+      <c r="N9">
+        <v>0.8482890000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1346555880333235</v>
+      </c>
+      <c r="P9">
+        <v>0.1346555880333235</v>
+      </c>
+      <c r="Q9">
+        <v>2.143360411525667</v>
+      </c>
+      <c r="R9">
+        <v>19.290243703731</v>
+      </c>
+      <c r="S9">
+        <v>0.01341764420659068</v>
+      </c>
+      <c r="T9">
+        <v>0.01341764420659068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.580059666666667</v>
+      </c>
+      <c r="H10">
+        <v>22.740179</v>
+      </c>
+      <c r="I10">
+        <v>0.09964416926589183</v>
+      </c>
+      <c r="J10">
+        <v>0.09964416926589181</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03274766666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.098243</v>
+      </c>
+      <c r="O10">
+        <v>0.01559488444994312</v>
+      </c>
+      <c r="P10">
+        <v>0.01559488444994312</v>
+      </c>
+      <c r="Q10">
+        <v>0.2482292672774445</v>
+      </c>
+      <c r="R10">
+        <v>2.234063405497</v>
+      </c>
+      <c r="S10">
+        <v>0.001553939305812157</v>
+      </c>
+      <c r="T10">
+        <v>0.001553939305812156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.484963333333333</v>
+      </c>
+      <c r="H11">
+        <v>13.45489</v>
+      </c>
+      <c r="I11">
+        <v>0.05895737833083702</v>
+      </c>
+      <c r="J11">
+        <v>0.05895737833083702</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.784387333333334</v>
+      </c>
+      <c r="N11">
+        <v>5.353162000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.8497495275167334</v>
+      </c>
+      <c r="P11">
+        <v>0.8497495275167334</v>
+      </c>
+      <c r="Q11">
+        <v>8.002911762464446</v>
+      </c>
+      <c r="R11">
+        <v>72.02620586218001</v>
+      </c>
+      <c r="S11">
+        <v>0.05009900438025405</v>
+      </c>
+      <c r="T11">
+        <v>0.05009900438025405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.484963333333333</v>
+      </c>
+      <c r="H12">
+        <v>13.45489</v>
+      </c>
+      <c r="I12">
+        <v>0.05895737833083702</v>
+      </c>
+      <c r="J12">
+        <v>0.05895737833083702</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.282763</v>
+      </c>
+      <c r="N12">
+        <v>0.8482890000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1346555880333235</v>
+      </c>
+      <c r="P12">
+        <v>0.1346555880333235</v>
+      </c>
+      <c r="Q12">
+        <v>1.268181687023333</v>
+      </c>
+      <c r="R12">
+        <v>11.41363518321</v>
+      </c>
+      <c r="S12">
+        <v>0.007938940448041984</v>
+      </c>
+      <c r="T12">
+        <v>0.007938940448041984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.484963333333333</v>
+      </c>
+      <c r="H13">
+        <v>13.45489</v>
+      </c>
+      <c r="I13">
+        <v>0.05895737833083702</v>
+      </c>
+      <c r="J13">
+        <v>0.05895737833083702</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03274766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.098243</v>
+      </c>
+      <c r="O13">
+        <v>0.01559488444994312</v>
+      </c>
+      <c r="P13">
+        <v>0.01559488444994312</v>
+      </c>
+      <c r="Q13">
+        <v>0.1468720842522222</v>
+      </c>
+      <c r="R13">
+        <v>1.32184875827</v>
+      </c>
+      <c r="S13">
+        <v>0.0009194335025409838</v>
+      </c>
+      <c r="T13">
+        <v>0.0009194335025409836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6981666666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.0945</v>
+      </c>
+      <c r="I14">
+        <v>0.009177795501407902</v>
+      </c>
+      <c r="J14">
+        <v>0.0091777955014079</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.784387333333334</v>
+      </c>
+      <c r="N14">
+        <v>5.353162000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.8497495275167334</v>
+      </c>
+      <c r="P14">
+        <v>0.8497495275167334</v>
+      </c>
+      <c r="Q14">
+        <v>1.245799756555556</v>
+      </c>
+      <c r="R14">
+        <v>11.212197809</v>
+      </c>
+      <c r="S14">
+        <v>0.007798827390966566</v>
+      </c>
+      <c r="T14">
+        <v>0.007798827390966564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6981666666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.0945</v>
+      </c>
+      <c r="I15">
+        <v>0.009177795501407902</v>
+      </c>
+      <c r="J15">
+        <v>0.0091777955014079</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.282763</v>
+      </c>
+      <c r="N15">
+        <v>0.8482890000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.1346555880333235</v>
+      </c>
+      <c r="P15">
+        <v>0.1346555880333235</v>
+      </c>
+      <c r="Q15">
+        <v>0.1974157011666667</v>
+      </c>
+      <c r="R15">
+        <v>1.7767413105</v>
+      </c>
+      <c r="S15">
+        <v>0.001235841450091672</v>
+      </c>
+      <c r="T15">
+        <v>0.001235841450091672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6981666666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.0945</v>
+      </c>
+      <c r="I16">
+        <v>0.009177795501407902</v>
+      </c>
+      <c r="J16">
+        <v>0.0091777955014079</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03274766666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.098243</v>
+      </c>
+      <c r="O16">
+        <v>0.01559488444994312</v>
+      </c>
+      <c r="P16">
+        <v>0.01559488444994312</v>
+      </c>
+      <c r="Q16">
+        <v>0.02286332927777778</v>
+      </c>
+      <c r="R16">
+        <v>0.2057699635</v>
+      </c>
+      <c r="S16">
+        <v>0.000143126660349664</v>
+      </c>
+      <c r="T16">
+        <v>0.000143126660349664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.34804733761347</v>
-      </c>
-      <c r="H7">
-        <v>1.34804733761347</v>
-      </c>
-      <c r="I7">
-        <v>0.02553818998112798</v>
-      </c>
-      <c r="J7">
-        <v>0.02553818998112798</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.679811484507606</v>
-      </c>
-      <c r="N7">
-        <v>0.679811484507606</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0.916418061769539</v>
-      </c>
-      <c r="R7">
-        <v>0.916418061769539</v>
-      </c>
-      <c r="S7">
-        <v>0.02553818998112798</v>
-      </c>
-      <c r="T7">
-        <v>0.02553818998112798</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.050643333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.15193</v>
+      </c>
+      <c r="I17">
+        <v>0.02695686582906484</v>
+      </c>
+      <c r="J17">
+        <v>0.02695686582906484</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.784387333333334</v>
+      </c>
+      <c r="N17">
+        <v>5.353162000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.8497495275167334</v>
+      </c>
+      <c r="P17">
+        <v>0.8497495275167334</v>
+      </c>
+      <c r="Q17">
+        <v>3.659141989184445</v>
+      </c>
+      <c r="R17">
+        <v>32.93227790266</v>
+      </c>
+      <c r="S17">
+        <v>0.02290658400157982</v>
+      </c>
+      <c r="T17">
+        <v>0.02290658400157982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.050643333333333</v>
+      </c>
+      <c r="H18">
+        <v>6.15193</v>
+      </c>
+      <c r="I18">
+        <v>0.02695686582906484</v>
+      </c>
+      <c r="J18">
+        <v>0.02695686582906484</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.282763</v>
+      </c>
+      <c r="N18">
+        <v>0.8482890000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.1346555880333235</v>
+      </c>
+      <c r="P18">
+        <v>0.1346555880333235</v>
+      </c>
+      <c r="Q18">
+        <v>0.5798460608633335</v>
+      </c>
+      <c r="R18">
+        <v>5.218614547770001</v>
+      </c>
+      <c r="S18">
+        <v>0.003629892619748131</v>
+      </c>
+      <c r="T18">
+        <v>0.00362989261974813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.050643333333333</v>
+      </c>
+      <c r="H19">
+        <v>6.15193</v>
+      </c>
+      <c r="I19">
+        <v>0.02695686582906484</v>
+      </c>
+      <c r="J19">
+        <v>0.02695686582906484</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03274766666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.098243</v>
+      </c>
+      <c r="O19">
+        <v>0.01559488444994312</v>
+      </c>
+      <c r="P19">
+        <v>0.01559488444994312</v>
+      </c>
+      <c r="Q19">
+        <v>0.06715378433222223</v>
+      </c>
+      <c r="R19">
+        <v>0.60438405899</v>
+      </c>
+      <c r="S19">
+        <v>0.0004203892077368864</v>
+      </c>
+      <c r="T19">
+        <v>0.0004203892077368863</v>
       </c>
     </row>
   </sheetData>
